--- a/output/Tables/Log linear/HIA_walking_2019.xlsx
+++ b/output/Tables/Log linear/HIA_walking_2019.xlsx
@@ -1,21 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Log linear/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891B908D-3668-3541-AA06-355001CEF8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>tot_cases</t>
+  </si>
+  <si>
+    <t>tot_cases_se</t>
+  </si>
+  <si>
+    <t>low_cases</t>
+  </si>
+  <si>
+    <t>sup_cases</t>
+  </si>
+  <si>
+    <t>tot_daly</t>
+  </si>
+  <si>
+    <t>tot_daly_se</t>
+  </si>
+  <si>
+    <t>low_daly</t>
+  </si>
+  <si>
+    <t>sup_daly</t>
+  </si>
+  <si>
+    <t>tot_medic_costs</t>
+  </si>
+  <si>
+    <t>tot_medic_costs_se</t>
+  </si>
+  <si>
+    <t>low_medic_costs</t>
+  </si>
+  <si>
+    <t>sup_medic_costs</t>
+  </si>
+  <si>
+    <t>tot_soc_costs</t>
+  </si>
+  <si>
+    <t>low_soc_costs</t>
+  </si>
+  <si>
+    <t>sup_soc_costs</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dem</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>cvd</t>
+  </si>
+  <si>
+    <t>diab2</t>
+  </si>
+  <si>
+    <t>mort</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +140,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +192,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,100 +437,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>disease</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>tot_cases</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>tot_cases_se</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>low_cases</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>sup_cases</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>tot_daly</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>tot_daly_se</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>low_daly</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sup_daly</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>tot_medic_costs</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tot_medic_costs_se</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>low_medic_costs</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>sup_medic_costs</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>tot_soc_costs</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>low_soc_costs</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>sup_soc_costs</t>
-        </is>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>cc</t>
-        </is>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1237.813156975634</v>
@@ -452,86 +515,84 @@
         <v>121.7194864513687</v>
       </c>
       <c r="D2">
-        <v>227.7233783692328</v>
+        <v>227.72337836923279</v>
       </c>
       <c r="E2">
-        <v>2119.988613615864</v>
+        <v>2119.9886136158639</v>
       </c>
       <c r="F2">
         <v>1346.58984129531</v>
       </c>
       <c r="G2">
-        <v>128.6916908657543</v>
+        <v>128.69169086575431</v>
       </c>
       <c r="H2">
-        <v>196.4386400115775</v>
+        <v>196.43864001157749</v>
       </c>
       <c r="I2">
-        <v>2669.059889885273</v>
+        <v>2669.0598898852732</v>
       </c>
       <c r="J2">
-        <v>33069416.30176106</v>
+        <v>33069416.301761061</v>
       </c>
       <c r="K2">
         <v>3251857.800034767</v>
       </c>
       <c r="L2">
-        <v>6083857.776512401</v>
+        <v>6083857.7765124012</v>
       </c>
       <c r="M2">
-        <v>56637615.80136122</v>
+        <v>56637615.801361218</v>
       </c>
       <c r="N2">
         <v>179096448.8922762</v>
       </c>
       <c r="O2">
-        <v>26126339.12153981</v>
+        <v>26126339.121539809</v>
       </c>
       <c r="P2">
-        <v>354984965.3547413</v>
+        <v>354984965.35474128</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>dem</t>
-        </is>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>2016.850167904697</v>
+        <v>2016.8501679046969</v>
       </c>
       <c r="C3">
-        <v>216.2008567615353</v>
+        <v>216.20085676153531</v>
       </c>
       <c r="D3">
         <v>1011.268991167198</v>
       </c>
       <c r="E3">
-        <v>2889.339974763427</v>
+        <v>2889.3399747634271</v>
       </c>
       <c r="F3">
         <v>1716.676980866253</v>
       </c>
       <c r="G3">
-        <v>197.7540327944401</v>
+        <v>197.75403279444009</v>
       </c>
       <c r="H3">
-        <v>696.3628998858999</v>
+        <v>696.36289988589988</v>
       </c>
       <c r="I3">
-        <v>2798.179942811142</v>
+        <v>2798.1799428111422</v>
       </c>
       <c r="J3">
-        <v>45879307.61949618</v>
+        <v>45879307.619496182</v>
       </c>
       <c r="K3">
-        <v>4918137.089611405</v>
+        <v>4918137.0896114046</v>
       </c>
       <c r="L3">
-        <v>23004347.01107145</v>
+        <v>23004347.011071451</v>
       </c>
       <c r="M3">
-        <v>65726705.74591848</v>
+        <v>65726705.745918483</v>
       </c>
       <c r="N3">
         <v>228318038.4552117</v>
@@ -540,69 +601,65 @@
         <v>92616265.68482469</v>
       </c>
       <c r="P3">
-        <v>372157932.3938819</v>
+        <v>372157932.39388192</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>3627.151287181472</v>
+        <v>3627.1512871814721</v>
       </c>
       <c r="C4">
-        <v>514.867780056337</v>
+        <v>514.86778005633698</v>
       </c>
       <c r="D4">
-        <v>2205.03762051568</v>
+        <v>2205.0376205156799</v>
       </c>
       <c r="E4">
-        <v>5880.100321375134</v>
+        <v>5880.1003213751337</v>
       </c>
       <c r="F4">
-        <v>5636.548314350354</v>
+        <v>5636.5483143503543</v>
       </c>
       <c r="G4">
-        <v>815.6728231916568</v>
+        <v>815.67282319165679</v>
       </c>
       <c r="H4">
-        <v>2632.774832809379</v>
+        <v>2632.7748328093789</v>
       </c>
       <c r="I4">
-        <v>11373.87475452456</v>
+        <v>11373.874754524561</v>
       </c>
       <c r="J4">
-        <v>170360041.6563396</v>
+        <v>170360041.65633959</v>
       </c>
       <c r="K4">
-        <v>24182309.89368604</v>
+        <v>24182309.893686041</v>
       </c>
       <c r="L4">
-        <v>103566206.9603804</v>
+        <v>103566206.96038041</v>
       </c>
       <c r="M4">
-        <v>276176551.8943473</v>
+        <v>276176551.89434731</v>
       </c>
       <c r="N4">
-        <v>749660925.8085971</v>
+        <v>749660925.80859709</v>
       </c>
       <c r="O4">
-        <v>350159052.7636474</v>
+        <v>350159052.76364738</v>
       </c>
       <c r="P4">
-        <v>1512725342.351767</v>
+        <v>1512725342.3517671</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>cvd</t>
-        </is>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>12987.13233032542</v>
+        <v>12987.132330325419</v>
       </c>
       <c r="C5">
         <v>1261.071864907396</v>
@@ -611,99 +668,95 @@
         <v>9469.84037249424</v>
       </c>
       <c r="E5">
-        <v>19886.66478223801</v>
+        <v>19886.664782238011</v>
       </c>
       <c r="F5">
-        <v>9022.111012408273</v>
+        <v>9022.1110124082734</v>
       </c>
       <c r="G5">
-        <v>878.6674369938544</v>
+        <v>878.66743699385438</v>
       </c>
       <c r="H5">
-        <v>5037.505453380266</v>
+        <v>5037.5054533802659</v>
       </c>
       <c r="I5">
         <v>16974.14690037342</v>
       </c>
       <c r="J5">
-        <v>271924576.7323527</v>
+        <v>271924576.73235267</v>
       </c>
       <c r="K5">
-        <v>26404322.70743106</v>
+        <v>26404322.707431059</v>
       </c>
       <c r="L5">
         <v>198279517.7192845</v>
       </c>
       <c r="M5">
-        <v>416386987.2104983</v>
+        <v>416386987.21049827</v>
       </c>
       <c r="N5">
         <v>1199940764.6503</v>
       </c>
       <c r="O5">
-        <v>669988225.2995753</v>
+        <v>669988225.29957533</v>
       </c>
       <c r="P5">
-        <v>2257561537.749665</v>
+        <v>2257561537.7496648</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>diab2</t>
-        </is>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
       </c>
       <c r="B6">
         <v>15836.06075416159</v>
       </c>
       <c r="C6">
-        <v>1546.383185092886</v>
+        <v>1546.3831850928859</v>
       </c>
       <c r="D6">
         <v>10306.32081821338</v>
       </c>
       <c r="E6">
-        <v>28628.66893948153</v>
+        <v>28628.668939481529</v>
       </c>
       <c r="F6">
-        <v>21737.45339707735</v>
+        <v>21737.453397077348</v>
       </c>
       <c r="G6">
-        <v>2208.498328142454</v>
+        <v>2208.4983281424538</v>
       </c>
       <c r="H6">
-        <v>10466.74010716545</v>
+        <v>10466.740107165449</v>
       </c>
       <c r="I6">
-        <v>49218.50209154654</v>
+        <v>49218.502091546543</v>
       </c>
       <c r="J6">
-        <v>578237922.3774568</v>
+        <v>578237922.37745678</v>
       </c>
       <c r="K6">
         <v>56464635.62048164</v>
       </c>
       <c r="L6">
-        <v>376324998.3562419</v>
+        <v>376324998.35624188</v>
       </c>
       <c r="M6">
         <v>1045347217.656229</v>
       </c>
       <c r="N6">
-        <v>2891081301.811287</v>
+        <v>2891081301.8112869</v>
       </c>
       <c r="O6">
-        <v>1392076434.253004</v>
+        <v>1392076434.2530041</v>
       </c>
       <c r="P6">
-        <v>6546060778.175691</v>
+        <v>6546060778.1756907</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>mort</t>
-        </is>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
       </c>
       <c r="B7">
         <v>16512.605324181</v>
@@ -712,10 +765,10 @@
         <v>1666.570393699636</v>
       </c>
       <c r="D7">
-        <v>6860.590041307699</v>
+        <v>6860.5900413076988</v>
       </c>
       <c r="E7">
-        <v>24873.95502144247</v>
+        <v>24873.955021442471</v>
       </c>
       <c r="F7">
         <v>158651.827652045</v>
@@ -724,10 +777,10 @@
         <v>15543.66301315577</v>
       </c>
       <c r="H7">
-        <v>65501.90065132089</v>
+        <v>65501.900651320888</v>
       </c>
       <c r="I7">
-        <v>239571.5507567683</v>
+        <v>239571.55075676829</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -742,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21100693077.72199</v>
+        <v>21100693077.721989</v>
       </c>
       <c r="O7">
         <v>8711752786.625679</v>
       </c>
       <c r="P7">
-        <v>31863016250.65019</v>
+        <v>31863016250.650188</v>
       </c>
     </row>
   </sheetData>
